--- a/src/main/java/com/crm/qa/testdata/FREECRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FREECRMTestData.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3AFC9-765F-4055-8685-6FDB52CCC6AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556" xr2:uid="{85F106C3-EBBB-4244-92FB-F7654B078FAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="3792"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +48,6 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>Mr.</t>
   </si>
   <si>
@@ -68,9 +60,6 @@
     <t>Chris</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Mrs.</t>
   </si>
   <si>
@@ -80,13 +69,19 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>Ebay</t>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Redit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33542D34-2033-4E36-AC4C-1C96171566BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +462,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -476,32 +471,32 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -513,7 +508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B326841-08B0-49B0-A6EB-19D8BCEC7DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -525,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97644DF9-AAAB-4A4E-A323-C62AB218090A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
